--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/7.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/7.xlsx
@@ -479,13 +479,13 @@
         <v>-0.119771652496453</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.567020131137664</v>
+        <v>-1.563065408095396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1197019072863956</v>
+        <v>0.1204668805793477</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09725459231720603</v>
+        <v>-0.09773466814920273</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1096956675902101</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.580528363236666</v>
+        <v>-1.576725533039604</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1467892023448591</v>
+        <v>0.1489172761968577</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0946794970347581</v>
+        <v>-0.09511077827399449</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1123404103832504</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.725533300767371</v>
+        <v>-1.721747784780643</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1202795723039129</v>
+        <v>0.1228279092612987</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09030372387754218</v>
+        <v>-0.09109702951467773</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1289833625133198</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.892336042099408</v>
+        <v>-1.890247318725442</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2049759672019816</v>
+        <v>0.2098900548986824</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1073361847891369</v>
+        <v>-0.1084143878872279</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1556202720547407</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.867786065864481</v>
+        <v>-1.865197591419502</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2851061326291571</v>
+        <v>0.2915344267205491</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1663729199717618</v>
+        <v>-0.1681594316744381</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1867454533974244</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.857816228750163</v>
+        <v>-1.857211805407583</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4132973979061277</v>
+        <v>0.4210683303079892</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1732482354936032</v>
+        <v>-0.174932435953395</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2170340077923668</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.699528143854802</v>
+        <v>-1.699713878111115</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4887952250593152</v>
+        <v>0.4969785504709575</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1807909351228761</v>
+        <v>-0.1825522625196116</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2397444848851595</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.41402862058548</v>
+        <v>-1.416392797305673</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6029493878125263</v>
+        <v>0.6124139647889073</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1895094270357606</v>
+        <v>-0.1916138906009396</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2461655148142134</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.020564764757462</v>
+        <v>-1.024731980381105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5861939542662804</v>
+        <v>0.5952713225388215</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1670292859453442</v>
+        <v>-0.169111713242825</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2276817711894128</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.42782221807717</v>
+        <v>-0.4314644983238597</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5666603769709389</v>
+        <v>0.5764129994465179</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1543993565160275</v>
+        <v>-0.1565777989799076</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1767718319409025</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2855783383655472</v>
+        <v>0.2830504636567384</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5066178435698029</v>
+        <v>0.5170236839807217</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07012322472334606</v>
+        <v>-0.07211593293091274</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.08935112037739516</v>
       </c>
       <c r="E13" t="n">
-        <v>1.022153178331175</v>
+        <v>1.02208706952808</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2970261794347672</v>
+        <v>0.3080521833794785</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02764382495800356</v>
+        <v>0.02642710817723812</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03667027385009593</v>
       </c>
       <c r="E14" t="n">
-        <v>1.790345340386369</v>
+        <v>1.79291256557321</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01545619490177233</v>
+        <v>0.02597379067030352</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1627922547511232</v>
+        <v>0.1617408099780943</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1961121208032164</v>
       </c>
       <c r="E15" t="n">
-        <v>2.508441195867926</v>
+        <v>2.511499515020613</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2750400520681187</v>
+        <v>-0.2636079511901118</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2829103759549426</v>
+        <v>0.2820005929028308</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3787289295617898</v>
       </c>
       <c r="E16" t="n">
-        <v>3.200501201064049</v>
+        <v>3.206809869702222</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5922899020427576</v>
+        <v>-0.5799779244759435</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4153782511844872</v>
+        <v>0.4146085558341712</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5773509139953006</v>
       </c>
       <c r="E17" t="n">
-        <v>4.041032133895979</v>
+        <v>4.05389659217437</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.016055986984496</v>
+        <v>-1.004547546179106</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5829813812397057</v>
+        <v>0.5821487251245376</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7857038153593517</v>
       </c>
       <c r="E18" t="n">
-        <v>4.651485543729146</v>
+        <v>4.667409895179346</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.369814423468144</v>
+        <v>-1.357771603171072</v>
       </c>
       <c r="G18" t="n">
-        <v>0.708506258125193</v>
+        <v>0.7071762119676939</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9936029530518123</v>
       </c>
       <c r="E19" t="n">
-        <v>5.300609455334429</v>
+        <v>5.321602148355216</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.7815738905526</v>
+        <v>-1.769094279949368</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9060661200970062</v>
+        <v>0.9053641075689061</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.19111323758563</v>
       </c>
       <c r="E20" t="n">
-        <v>5.750371253074009</v>
+        <v>5.773485723870309</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.172487835404111</v>
+        <v>-2.16166802796429</v>
       </c>
       <c r="G20" t="n">
-        <v>1.088441419605632</v>
+        <v>1.087920419276481</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.367457731259846</v>
       </c>
       <c r="E21" t="n">
-        <v>6.118247854066163</v>
+        <v>6.143340866897939</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.613674376970845</v>
+        <v>-2.604786678002421</v>
       </c>
       <c r="G21" t="n">
-        <v>1.290512420379093</v>
+        <v>1.291965240028053</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.514021433959544</v>
       </c>
       <c r="E22" t="n">
-        <v>6.404801183137196</v>
+        <v>6.432555862303091</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.981000071270544</v>
+        <v>-2.974098784433201</v>
       </c>
       <c r="G22" t="n">
-        <v>1.429750151849352</v>
+        <v>1.43087400150196</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.627106848509917</v>
       </c>
       <c r="E23" t="n">
-        <v>6.669869151202474</v>
+        <v>6.699166369107244</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.275166930831308</v>
+        <v>-3.269339912044253</v>
       </c>
       <c r="G23" t="n">
-        <v>1.524288888312914</v>
+        <v>1.525784206478149</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.705843638378099</v>
       </c>
       <c r="E24" t="n">
-        <v>6.722924613724157</v>
+        <v>6.751617408286346</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.521387593938132</v>
+        <v>-3.517470647354775</v>
       </c>
       <c r="G24" t="n">
-        <v>1.642821972261583</v>
+        <v>1.645175130847928</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.749694939187199</v>
       </c>
       <c r="E25" t="n">
-        <v>6.757850524006697</v>
+        <v>6.787665594202375</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.679904698615642</v>
+        <v>-3.676504817313633</v>
       </c>
       <c r="G25" t="n">
-        <v>1.696848604581108</v>
+        <v>1.699354443022218</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.761459352946679</v>
       </c>
       <c r="E26" t="n">
-        <v>6.692692428461334</v>
+        <v>6.721275041685034</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.870840301115462</v>
+        <v>-3.871245611039197</v>
       </c>
       <c r="G26" t="n">
-        <v>1.737952539914754</v>
+        <v>1.740836142944977</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.745506118275313</v>
       </c>
       <c r="E27" t="n">
-        <v>6.554628915255566</v>
+        <v>6.580839481663465</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.024364617140206</v>
+        <v>-4.027670844304498</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76265834404269</v>
+        <v>1.765250753535472</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.707585500884008</v>
       </c>
       <c r="E28" t="n">
-        <v>6.333373769431692</v>
+        <v>6.358625758194719</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.033194864410703</v>
+        <v>-4.038411950788254</v>
       </c>
       <c r="G28" t="n">
-        <v>1.753949296244533</v>
+        <v>1.757355473623028</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.656436037468942</v>
       </c>
       <c r="E29" t="n">
-        <v>6.193279771559445</v>
+        <v>6.218086312911145</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.979845060313338</v>
+        <v>-3.985838925127251</v>
       </c>
       <c r="G29" t="n">
-        <v>1.707947013405399</v>
+        <v>1.711564109346148</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.597520621159358</v>
       </c>
       <c r="E30" t="n">
-        <v>5.932165739526875</v>
+        <v>5.95454829143177</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.901011886642114</v>
+        <v>-3.906975845092722</v>
       </c>
       <c r="G30" t="n">
-        <v>1.682109489529248</v>
+        <v>1.686077591734047</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.535340717759998</v>
       </c>
       <c r="E31" t="n">
-        <v>5.700600768458481</v>
+        <v>5.722496948454895</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.768356703137135</v>
+        <v>-3.774038125155469</v>
       </c>
       <c r="G31" t="n">
-        <v>1.586061268728359</v>
+        <v>1.589955392034457</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.473542801668296</v>
       </c>
       <c r="E32" t="n">
-        <v>5.442420708068014</v>
+        <v>5.46234621612456</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.641611174423078</v>
+        <v>-3.647044688429808</v>
       </c>
       <c r="G32" t="n">
-        <v>1.47332529720344</v>
+        <v>1.475979093441953</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.412626100860876</v>
       </c>
       <c r="E33" t="n">
-        <v>5.07727817828956</v>
+        <v>5.094688403790267</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.419294352701888</v>
+        <v>-3.422568312474193</v>
       </c>
       <c r="G33" t="n">
-        <v>1.347057483292699</v>
+        <v>1.348878623416043</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.35460471996084</v>
       </c>
       <c r="E34" t="n">
-        <v>4.730224276253092</v>
+        <v>4.747274051375022</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.296508269087463</v>
+        <v>-3.29951700663783</v>
       </c>
       <c r="G34" t="n">
-        <v>1.242899915978868</v>
+        <v>1.244064690128631</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.299724148189109</v>
       </c>
       <c r="E35" t="n">
-        <v>4.34602509697305</v>
+        <v>4.360600514036294</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.130688502696679</v>
+        <v>-3.132218449282583</v>
       </c>
       <c r="G35" t="n">
-        <v>1.114617357592862</v>
+        <v>1.115613711696645</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.245673305869106</v>
       </c>
       <c r="E36" t="n">
-        <v>4.011083272074991</v>
+        <v>4.024640298766754</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.02411324201253</v>
+        <v>-3.025703788334605</v>
       </c>
       <c r="G36" t="n">
-        <v>1.004033070206761</v>
+        <v>1.004631197472855</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.192822508225267</v>
       </c>
       <c r="E37" t="n">
-        <v>3.664767585006414</v>
+        <v>3.676095800622415</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.876416731784401</v>
+        <v>-2.877473685624355</v>
       </c>
       <c r="G37" t="n">
-        <v>0.919303620907145</v>
+        <v>0.9195806482724939</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.139810616189247</v>
       </c>
       <c r="E38" t="n">
-        <v>3.293354163048697</v>
+        <v>3.302543286678851</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.735928442122269</v>
+        <v>-2.736125981521992</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8299497034291475</v>
+        <v>0.8300661808441238</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.084763596872684</v>
       </c>
       <c r="E39" t="n">
-        <v>2.94694246081372</v>
+        <v>2.954737003502402</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.570462830033777</v>
+        <v>-2.569537306790452</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7482266306512159</v>
+        <v>0.7482045943835176</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.029048459882369</v>
       </c>
       <c r="E40" t="n">
-        <v>2.707540448540371</v>
+        <v>2.715209069699348</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.424116041202164</v>
+        <v>-2.422250828543422</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7107775677172299</v>
+        <v>0.7107948819275641</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9723408323419381</v>
       </c>
       <c r="E41" t="n">
-        <v>2.499292996734926</v>
+        <v>2.507119019806033</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.300992330486221</v>
+        <v>-2.299120034741434</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6152771055705533</v>
+        <v>0.6152361810733994</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9144060889248101</v>
       </c>
       <c r="E42" t="n">
-        <v>2.249834576295587</v>
+        <v>2.257945496827649</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.24263871960224</v>
+        <v>-2.242034296259661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5634037314089677</v>
+        <v>0.5638098283422633</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8560388620346978</v>
       </c>
       <c r="E43" t="n">
-        <v>2.013443662601285</v>
+        <v>2.021269685672392</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.140836671903436</v>
+        <v>-2.140248775761631</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4961537644513959</v>
+        <v>0.4959538640229907</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7970607062944629</v>
       </c>
       <c r="E44" t="n">
-        <v>1.776994510199496</v>
+        <v>1.784837847480938</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.093728640631589</v>
+        <v>-2.093656235752009</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4561846969042075</v>
+        <v>0.4565986639331096</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7371735558218424</v>
       </c>
       <c r="E45" t="n">
-        <v>1.558462417455473</v>
+        <v>1.566006691103867</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.043318317243252</v>
+        <v>-2.043541827958477</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3649136241364658</v>
+        <v>0.3646192825607826</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6773698967585662</v>
       </c>
       <c r="E46" t="n">
-        <v>1.360575159506429</v>
+        <v>1.368698672191462</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.971757898921998</v>
+        <v>-1.971879885403899</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3156074751617218</v>
+        <v>0.3154311850201361</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6171558358330941</v>
       </c>
       <c r="E47" t="n">
-        <v>1.159343110924621</v>
+        <v>1.167153393804515</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.881672062552596</v>
+        <v>-1.881417858464506</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3043154619855106</v>
+        <v>0.304778223607173</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5572957470007011</v>
       </c>
       <c r="E48" t="n">
-        <v>0.99903398547751</v>
+        <v>1.007137035913966</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.826911937322545</v>
+        <v>-1.826793885888448</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2329777673699209</v>
+        <v>0.2334562691827963</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4992103496757532</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8694890637562208</v>
+        <v>0.8775149872557331</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.784150559854169</v>
+        <v>-1.7844779558314</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1967501432740643</v>
+        <v>0.1975308567582294</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4436494052434706</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7814226939194473</v>
+        <v>0.7898987868876516</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.703500181107404</v>
+        <v>-1.703341992185713</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1644953434403706</v>
+        <v>0.1654208666836954</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.392817063045619</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6750929802182219</v>
+        <v>0.6842427533703429</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.618587358580156</v>
+        <v>-1.618100199662114</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1351446088854766</v>
+        <v>0.1359111561975501</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3479628437890607</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5030810226042403</v>
+        <v>0.5109463961533798</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.562919024317115</v>
+        <v>-1.561845543276388</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07973598777744982</v>
+        <v>0.08020661949471872</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3099091002035962</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4150146527674667</v>
+        <v>0.4228642861253932</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.55692279847452</v>
+        <v>-1.556127131808703</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01434965945949795</v>
+        <v>0.01407892817063423</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2788605181907681</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3195063205251836</v>
+        <v>0.3273465097683823</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.501324508062376</v>
+        <v>-1.499678084061496</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0209886438328238</v>
+        <v>-0.02119169229947158</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2550620231876685</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2108958531171935</v>
+        <v>0.2180670842338395</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.493129377507325</v>
+        <v>-1.491556145395585</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03166364151348506</v>
+        <v>-0.03149049941014199</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2373189390133774</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08182943320877974</v>
+        <v>0.08758089907801245</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.496278202759487</v>
+        <v>-1.494367343546227</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08766251979199963</v>
+        <v>-0.08800565596044319</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2251493519179683</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02176014148258158</v>
+        <v>0.02737151965001854</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.502799363979035</v>
+        <v>-1.500905818976111</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08627895698437632</v>
+        <v>-0.08620497808567519</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2175714846929571</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1029084690009181</v>
+        <v>-0.09839418216102772</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.527478409781909</v>
+        <v>-1.5266205693608</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1552493268415299</v>
+        <v>-0.155899396738627</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.213200433286291</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1905671678852747</v>
+        <v>-0.1868383165869134</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.539568450652619</v>
+        <v>-1.538887687382657</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2043303910819279</v>
+        <v>-0.2052370260957971</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2108519267142821</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.309947074121204</v>
+        <v>-0.3062434071287836</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522624134811817</v>
+        <v>-1.521620697621988</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.24383197495009</v>
+        <v>-0.2449495285262135</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.209102748766205</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4133176318743841</v>
+        <v>-0.4109943796513443</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.580346564028156</v>
+        <v>-1.580256844938242</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2538458845998049</v>
+        <v>-0.2548973293728338</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.205993528128921</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5231589822352313</v>
+        <v>-0.5222177188006936</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.602779484544934</v>
+        <v>-1.602188440364885</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2763181555946149</v>
+        <v>-0.2775569086430785</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2008627560497084</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.642074552830377</v>
+        <v>-0.6428599883719061</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.662711049598018</v>
+        <v>-1.662781093448916</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3199861680768599</v>
+        <v>-0.3211619603604715</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1932004488115268</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7492038682452231</v>
+        <v>-0.7517207248201829</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.756188110164263</v>
+        <v>-1.757515008283519</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3880325887098099</v>
+        <v>-0.3900677954336517</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1830290552271649</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8520904151186032</v>
+        <v>-0.8555068236213863</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.848890753322827</v>
+        <v>-1.851238402842247</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4162043829428496</v>
+        <v>-0.4185543934909515</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1712181309241335</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9126358476289949</v>
+        <v>-0.9164056234245099</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.886780541610777</v>
+        <v>-1.889044768116769</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4639113284903522</v>
+        <v>-0.466391982625522</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1576554308420489</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.018430394828978</v>
+        <v>-1.022747929278706</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.905515304202059</v>
+        <v>-1.90761032365251</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5035813324044933</v>
+        <v>-0.5065404883525386</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1426797266418634</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.057723421163568</v>
+        <v>-1.062662693166209</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.921592335507024</v>
+        <v>-1.923237185488783</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5246023577694641</v>
+        <v>-0.5277016014193051</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.125917313393518</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.078731854375568</v>
+        <v>-1.083313037028114</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.013942398382417</v>
+        <v>-2.016504901511895</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5646642924448092</v>
+        <v>-0.5686386907260934</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1075908740937481</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.075896258928545</v>
+        <v>-1.079995791729972</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.04125871322303</v>
+        <v>-2.043622889943224</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5967144697927338</v>
+        <v>-0.6004401730528525</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.08724693001533894</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.050891391167562</v>
+        <v>-1.053843464029562</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.080120458318384</v>
+        <v>-2.082608195539599</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.586240946559599</v>
+        <v>-0.5901350698656969</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.06542317668217482</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.059086521722614</v>
+        <v>-1.062321131016887</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.129747707193873</v>
+        <v>-2.132296044151259</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.592297772138364</v>
+        <v>-0.59609273223982</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.0423327761627801</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9225836484756151</v>
+        <v>-0.9240592914018345</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.0709439268412</v>
+        <v>-2.072139394363828</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5999931516224031</v>
+        <v>-0.6035850632572113</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.01896064216749357</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7725686080818105</v>
+        <v>-0.7723372272709793</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.071333496573723</v>
+        <v>-2.071981992451698</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6012114424222899</v>
+        <v>-0.6046758585082727</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.003287714800022274</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6540622824582031</v>
+        <v>-0.652230124201009</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.037895821370372</v>
+        <v>-2.037588887641718</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5906529221566048</v>
+        <v>-0.5939709544643067</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.02333856409370398</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4826311378999812</v>
+        <v>-0.4792029242537883</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.992045431376443</v>
+        <v>-1.990171561612534</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5701466010442995</v>
+        <v>-0.5731089050305873</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.03983400134759818</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3140662821616479</v>
+        <v>-0.3093473728359885</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.9554715230739</v>
+        <v>-1.953003461091701</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4992700940312508</v>
+        <v>-0.5009527204719212</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.0522226400916125</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1076620067472462</v>
+        <v>-0.1018696163808596</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.966928021248287</v>
+        <v>-1.964352138956279</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4457125194098736</v>
+        <v>-0.446593970117802</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05957700609226348</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1248930223484453</v>
+        <v>0.1323066524097715</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.901348088578415</v>
+        <v>-1.898155190790857</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4184489342098244</v>
+        <v>-0.4191729830056227</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06172600737477547</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3144552931649297</v>
+        <v>0.3226165823088737</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.801987344536749</v>
+        <v>-1.797392782721672</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3629442979353982</v>
+        <v>-0.3631221620961052</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05843492165061573</v>
       </c>
       <c r="E81" t="n">
-        <v>0.557542084201244</v>
+        <v>0.5663408510893149</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.767497437550808</v>
+        <v>-1.762452706267039</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3026735317616736</v>
+        <v>-0.3026955680293718</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05006964498727626</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8230350374292736</v>
+        <v>0.8329686721038022</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.715381664444542</v>
+        <v>-1.710805203849361</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2542567035904644</v>
+        <v>-0.2535279327373022</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03670415216105498</v>
       </c>
       <c r="E83" t="n">
-        <v>1.047737285128796</v>
+        <v>1.057312043443668</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.670692113552573</v>
+        <v>-1.666078663508041</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2068787280393137</v>
+        <v>-0.2067276222036689</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.01854997526936391</v>
       </c>
       <c r="E84" t="n">
-        <v>1.268814566791963</v>
+        <v>1.278943379837533</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.625908121513326</v>
+        <v>-1.6220525616757</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1574183251906822</v>
+        <v>-0.1568327900775583</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.004116603116026776</v>
       </c>
       <c r="E85" t="n">
-        <v>1.537471298453807</v>
+        <v>1.549158390429464</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.567883480625697</v>
+        <v>-1.564925111687213</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1075911758867876</v>
+        <v>-0.1066105619742173</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.03044920124726711</v>
       </c>
       <c r="E86" t="n">
-        <v>1.722503542239188</v>
+        <v>1.733608247139964</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.494601085385741</v>
+        <v>-1.492486390696273</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06458739947373154</v>
+        <v>-0.0635516948919157</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05883430454319481</v>
       </c>
       <c r="E87" t="n">
-        <v>1.891232095966136</v>
+        <v>1.901877187283493</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.413093653227427</v>
+        <v>-1.411764394079489</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.009772183574435095</v>
+        <v>-0.008094279191128562</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08671796418752965</v>
       </c>
       <c r="E88" t="n">
-        <v>2.021524676770043</v>
+        <v>2.03209736320782</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.312343837311213</v>
+        <v>-1.311692193394994</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03087686023315517</v>
+        <v>0.03287743853632834</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1104533569900427</v>
       </c>
       <c r="E89" t="n">
-        <v>2.10253944094339</v>
+        <v>2.112353450164699</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.163816244987037</v>
+        <v>-1.163658056065346</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06812759675785725</v>
+        <v>0.07037372204395333</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1268804780460664</v>
       </c>
       <c r="E90" t="n">
-        <v>2.167661334048963</v>
+        <v>2.176532505816614</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.028928315358493</v>
+        <v>-1.029972677045476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08814124988519549</v>
+        <v>0.09026932373719403</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1333692280445662</v>
       </c>
       <c r="E91" t="n">
-        <v>2.197029382814191</v>
+        <v>2.204867998038269</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8493287985702811</v>
+        <v>-0.8505376452554401</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06351099867508232</v>
+        <v>0.06533843487491242</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1280521918097522</v>
       </c>
       <c r="E92" t="n">
-        <v>2.257884110081918</v>
+        <v>2.26574003951633</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6466187460335721</v>
+        <v>-0.6477079672655122</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09168121888900074</v>
+        <v>0.0936518908288692</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1108713843624064</v>
       </c>
       <c r="E93" t="n">
-        <v>2.243779324735943</v>
+        <v>2.251515628717136</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5047240702865576</v>
+        <v>-0.5065310442378108</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0785507513791104</v>
+        <v>0.08071660169002015</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08391959869279179</v>
       </c>
       <c r="E94" t="n">
-        <v>2.225649772496802</v>
+        <v>2.23339237255448</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3019699452144522</v>
+        <v>-0.3033834143853802</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05140364359403744</v>
+        <v>0.05345616452821354</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05075776257127731</v>
       </c>
       <c r="E95" t="n">
-        <v>2.114457913729879</v>
+        <v>2.120428168256972</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1124438768377577</v>
+        <v>-0.1127996051591716</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02527020412308212</v>
+        <v>0.02719050745106896</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01564771282593728</v>
       </c>
       <c r="E96" t="n">
-        <v>2.025033165391422</v>
+        <v>2.030838147910779</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01449581495745846</v>
+        <v>-0.01515847700752605</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02482610245055487</v>
+        <v>-0.02372114102740179</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01816696870348634</v>
       </c>
       <c r="E97" t="n">
-        <v>1.807650106605948</v>
+        <v>1.812488641384827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06285620672062124</v>
+        <v>0.06264056610100305</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05393758609901109</v>
+        <v>-0.05291604768928695</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04916239575112593</v>
       </c>
       <c r="E98" t="n">
-        <v>1.619211685442073</v>
+        <v>1.622882298032946</v>
       </c>
       <c r="F98" t="n">
-        <v>0.102565561112795</v>
+        <v>0.1022696455179905</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07187195996711113</v>
+        <v>-0.07124707437595476</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07573899760351116</v>
       </c>
       <c r="E99" t="n">
-        <v>1.453495804313294</v>
+        <v>1.456793374372419</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1118758842152886</v>
+        <v>0.1114367328804457</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1045533189826773</v>
+        <v>-0.1038166780339086</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09828732194245061</v>
       </c>
       <c r="E100" t="n">
-        <v>1.262825424035414</v>
+        <v>1.265523292809323</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1279529155202538</v>
+        <v>0.1275956131797185</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09983126161877524</v>
+        <v>-0.09887740603126703</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1153495609622259</v>
       </c>
       <c r="E101" t="n">
-        <v>1.117622160095425</v>
+        <v>1.119965874567042</v>
       </c>
       <c r="F101" t="n">
-        <v>0.08904631087994339</v>
+        <v>0.08781227988884364</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1363217469078891</v>
+        <v>-0.1357031573932179</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1279166597506364</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9531025334988347</v>
+        <v>0.954915803526573</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08178378665426202</v>
+        <v>0.08019717537999092</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0892066325499956</v>
+        <v>-0.0876011330462689</v>
       </c>
     </row>
   </sheetData>
